--- a/data/sysml2/result/Scenario_Prop.xlsx
+++ b/data/sysml2/result/Scenario_Prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -473,17 +473,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>drivingDirection</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vehicleType</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RoadName</t>
+          <t>DrivingDirection</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -539,12 +539,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RoadType</t>
+          <t>VehiclePosition</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NumofLane</t>
+          <t>VehicleSpeed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -583,17 +583,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NumofPassableLane</t>
+          <t>DamageCondition</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;class 'int'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>StartStake</t>
+          <t>WeatherType</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -627,17 +627,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EndStake</t>
+          <t>Rainfall</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -649,17 +649,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DamageCondition</t>
+          <t>Visibility</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AffectedRoad</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ClosedCondition</t>
+          <t>WindSpeed</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -693,17 +693,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PollutedCondition</t>
+          <t>WindForce</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AffectedRoad</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Casualty</t>
+          <t>SnowfallIntensity</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AffectedPeople</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -737,17 +737,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MeteorologyType</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -759,12 +759,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rainfall</t>
+          <t>BreakdownCondition</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visibility</t>
+          <t>RollOverCondition</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WindSpeed</t>
+          <t>AbnormalSpeedCondition</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -825,12 +825,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WindScale</t>
+          <t>IIIegalLaneOccupationCondition</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -847,17 +847,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CollideCondition</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>ResourceUsageCondition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ExplodeCondition</t>
+          <t>ResourceQuantityOrQuality</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>implementationCondition</t>
+          <t>BehaviorType</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>aid</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>startTime</t>
+          <t>ImplementationCondition</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>aid</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>endTime</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>aid</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'float'&gt;</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>utilizedCondition</t>
+          <t>casualties</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ambulance</t>
+          <t>SafetyFactors</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>usageAmount</t>
+          <t>emergencyType</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ambulance</t>
+          <t>SafetyFactors</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;class 'float'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>casualties</t>
+          <t>roadPassibility</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SafetyFactors</t>
+          <t>FunctionFactors</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>emergencyType</t>
+          <t>actionType</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SafetyFactors</t>
+          <t>EconomicFactors</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1067,17 +1067,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>roadPassibility</t>
+          <t>resourceType</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FunctionFactors</t>
+          <t>EconomicFactors</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>actionType</t>
+          <t>roadLoss</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;class 'str'&gt;</t>
+          <t>&lt;class 'bool'&gt;</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>resourceType</t>
+          <t>disposalDuration</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EconomicFactors</t>
+          <t>TimeFactors</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1133,17 +1133,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>roadLoss</t>
+          <t>emergencyPeriod</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EconomicFactors</t>
+          <t>TimeFactors</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;class 'bool'&gt;</t>
+          <t>&lt;class 'str'&gt;</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>disposalDuration</t>
+          <t>responseDuration</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1172,46 +1172,30 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DataProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>emergencyPeriod</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>TimeFactors</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
+          <t>associateWith</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DataProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>responseDuration</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>TimeFactors</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
+          <t>consistComposition</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1221,7 +1205,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>associateWith</t>
+          <t>exhibitState</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1235,7 +1219,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>consistComposition</t>
+          <t>hasEffectOn</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1249,7 +1233,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>exhibitState</t>
+          <t>stateTransform</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1263,11 +1247,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>hasEffectOn</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+          <t>CollideTransform</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DriveState</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CollideState</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1277,11 +1269,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>stateTransform</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+          <t>ExplodeTransform</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CollidedState</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ExplodeState</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1291,17 +1291,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>associateRoad</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
+          <t>hasCollideEffectOn</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Road</t>
+          <t>324</t>
         </is>
       </c>
     </row>
@@ -1313,19 +1309,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CollideTransform</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>DriveState</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>CollideState</t>
-        </is>
-      </c>
+          <t>hasExplodeEffectOn</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1335,17 +1323,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ExplodeTransform</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>CollidedState</t>
-        </is>
-      </c>
+          <t>hasSpillEffectOn</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ExplodeState</t>
+          <t>435</t>
         </is>
       </c>
     </row>
@@ -1357,19 +1341,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>consistpassenger</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>People</t>
-        </is>
-      </c>
+          <t>hasVehicleDepartureEffectOn</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1379,19 +1355,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>exhibitAffectedStates</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>AffectedVehicle</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>AffectedStates</t>
-        </is>
-      </c>
+          <t>hasVehicleExplosionEffectOn</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1401,19 +1369,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>consistlane</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>AffectedRoad</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Lane</t>
-        </is>
-      </c>
+          <t>hasVehicleMotionEffectOn</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1423,19 +1383,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>consistfacility</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>AffectedRoad</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Facility</t>
-        </is>
-      </c>
+          <t>hasVehicleSpeedChangeEffectOn</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1445,19 +1397,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>hasCollideEffectOn</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>AffectedPeople</t>
-        </is>
-      </c>
+          <t>hasVehicleSpillageEffectOn</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1467,15 +1411,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>hasSpillEffectOn</t>
+          <t>hasVehicleTransportEffectOn</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1485,17 +1425,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>hasExplodeEffectOn</t>
+          <t>consistVehicleCargo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AffectedVehicle</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
     </row>
@@ -1507,17 +1447,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SpillTransform</t>
+          <t>consistVehiclePassengers</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CollideState</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SpillState</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1469,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>consistcargo</t>
+          <t>consistVehicleComponents</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1539,7 +1479,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Cargo</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
     </row>
@@ -1551,17 +1491,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>exhibitHazardStates</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
+          <t>associate-28</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HazardStates</t>
+          <t>-28</t>
         </is>
       </c>
     </row>
@@ -1573,11 +1509,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>associateAction</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+          <t>SpillTransform</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CollideState</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SpillState</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1587,7 +1531,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>associateResource</t>
+          <t>hasVehicleBreakdownEffectOn</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1601,19 +1545,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>associateambulance</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>aid</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
+          <t>hasVehicleCollisionEffectOn</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1623,19 +1559,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>associatefireFightingTruck</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>firefighting</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>fireFightingTruck</t>
-        </is>
-      </c>
+          <t>hasVehicleLaneChangeEffectOn</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1645,19 +1573,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>associatetractor</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>tow</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>tractor</t>
-        </is>
-      </c>
+          <t>hasVehicleOverturnEffectOn</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1667,19 +1587,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>associateemergencyVehicle</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>rescue</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>emergencyVehicle</t>
-        </is>
-      </c>
+          <t>hasVehicleTurningEffectOn</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1733,7 +1645,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tow:ActionTransform</t>
+          <t>Rescue:ActionTransform</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1755,7 +1667,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rescue:ActionTransform</t>
+          <t>Tow:ActionTransform</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1777,19 +1689,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>exhibitaidStates</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>aid</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>aidStates</t>
-        </is>
-      </c>
+          <t>hasActionEffectOn</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1799,19 +1703,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>exhibitfirefightingStates</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>firefighting</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>firefightingStates</t>
-        </is>
-      </c>
+          <t>hasFirefightingEffectOn</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1821,19 +1717,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>exhibittowStates</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>tow</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>towStates</t>
-        </is>
-      </c>
+          <t>hasPersonnalRescueEffectOn</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1843,19 +1731,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>exhibitrescueStates</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>rescue</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>rescueStates</t>
-        </is>
-      </c>
+          <t>hasRoadCleaningEffectOn</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1865,19 +1745,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>hasActionEffectOn</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>emergencyVehicle</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>aid</t>
-        </is>
-      </c>
+          <t>hasRoadControlEffectOn</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1887,19 +1759,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hasResilience</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Scenario</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>ScenarioResilience</t>
-        </is>
-      </c>
+          <t>hasRoadRepairEffectOn</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1909,19 +1773,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>involvesElement</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Scenario</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>InvolvedScenarioElement</t>
-        </is>
-      </c>
+          <t>hasVehicleTowingEffectOn</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1931,15 +1787,59 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>hasResilience</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ScenarioResilience</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>involvesElement</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>InvolvedScenarioElement</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>influencedBy</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Scenario</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>ResilienceInfluentialFactors</t>
         </is>
